--- a/FantasyLab-Laravel.xlsx
+++ b/FantasyLab-Laravel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>Module</t>
   </si>
@@ -82,18 +82,9 @@
     <t>Frontend</t>
   </si>
   <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>PSD to HTML</t>
-  </si>
-  <si>
     <t>Points highlighted as yellow are not making sense for us</t>
   </si>
   <si>
-    <t>Hours may vary after feedback of highlighted points</t>
-  </si>
-  <si>
     <t>Admin Login</t>
   </si>
   <si>
@@ -178,9 +169,6 @@
     <t>Suscribers</t>
   </si>
   <si>
-    <t>Admin should receive a list of all subscribers in back-end</t>
-  </si>
-  <si>
     <t>Single News Page</t>
   </si>
   <si>
@@ -190,20 +178,11 @@
     <t>Multilangual</t>
   </si>
   <si>
-    <t>Multilangual Website</t>
-  </si>
-  <si>
     <t>Languages : English &amp; Norwegian</t>
-  </si>
-  <si>
-    <t>Create HTML from the PSD provided to us (Responsive)</t>
   </si>
   <si>
     <t>There should be Google Maps integrated
 Submit Contact form and send email</t>
-  </si>
-  <si>
-    <t>News pages will be static</t>
   </si>
   <si>
     <r>
@@ -220,12 +199,6 @@
     </r>
   </si>
   <si>
-    <t>Our story page will be static</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Any changes in above scope will change the esimated hours accordingly</t>
   </si>
   <si>
@@ -253,6 +226,27 @@
       </rPr>
       <t>(MailChimp)</t>
     </r>
+  </si>
+  <si>
+    <t>Testinomials Manager</t>
+  </si>
+  <si>
+    <t>Admin can manage testinomial to be displayed on front page</t>
+  </si>
+  <si>
+    <t>Multilangual website contents</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Functionality Testing</t>
+  </si>
+  <si>
+    <t>Admin should receive a list of all subscribers in back-end from mailchimp</t>
+  </si>
+  <si>
+    <t>Website features testing will be 20 % of development hours</t>
   </si>
 </sst>
 </file>
@@ -436,7 +430,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -531,9 +525,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -569,6 +572,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -852,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,13 +891,13 @@
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="35">
         <v>16</v>
       </c>
     </row>
@@ -899,452 +905,452 @@
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>20</v>
+      <c r="A4" s="45" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="19">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
-        <v>26</v>
-      </c>
+      <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46"/>
       <c r="B5" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="46"/>
+      <c r="B6" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="46"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="43"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="46"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="46"/>
+      <c r="B9" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
+      <c r="B10" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
+      <c r="B11" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="46"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="40"/>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="21">
+      <c r="D14" s="42"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="42"/>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="43"/>
+    </row>
+    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
+      <c r="B17" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="39"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="39"/>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="8" t="s">
+    <row r="18" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="40"/>
-    </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="38" t="s">
+      <c r="D18" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="46"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>63</v>
+      <c r="D19" s="19">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="40"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="18" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D20" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>63</v>
+        <v>35</v>
+      </c>
+      <c r="D21" s="9">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D22" s="21">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D23" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="38" t="s">
-        <v>46</v>
+      <c r="A24" s="46"/>
+      <c r="B24" s="41" t="s">
+        <v>43</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D24" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="40"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>63</v>
+        <v>45</v>
+      </c>
+      <c r="D25" s="21">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="38" t="s">
-        <v>49</v>
+      <c r="A26" s="46"/>
+      <c r="B26" s="41" t="s">
+        <v>46</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D26" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="40"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="18" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D27" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="46"/>
+      <c r="B29" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D29" s="21">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="5">
+        <f>SUM(D2:D31)</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="11"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="5">
-        <f>SUM(D2:D30)</f>
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="11"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
       <c r="D42"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
+      <c r="A43" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
       <c r="D43"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
       <c r="D44"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D45"/>
     </row>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46"/>
+    </row>
     <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A44:C44"/>
+  <mergeCells count="18">
+    <mergeCell ref="A43:C43"/>
     <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D6:D7"/>
     <mergeCell ref="D13:D16"/>
-    <mergeCell ref="A43:C43"/>
     <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A40:C40"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A13:A30"/>
-    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="A4:A12"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A38:C38"/>
     <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B6:B8"/>
     <mergeCell ref="B24:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
